--- a/formPage/TestCase-Form-E2E.xlsx
+++ b/formPage/TestCase-Form-E2E.xlsx
@@ -7,8 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="TestCase" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -147,9 +146,6 @@
     <t>Verify that student can not register with long first name and Last Name (&gt;50 characters)  and Moblie Number &gt; 10 digits</t>
   </si>
   <si>
-    <t>Verify that student can not register with Moblie Number &gt; 10 digits</t>
-  </si>
-  <si>
     <t>1. Open browser
 2. Visit the website: "https://demoqa.com/automation-practice-form"
 3. Input valid first name: 'Anh'
@@ -212,6 +208,9 @@
 mobileNumber='9825467895'
 dayOfBirth = '7/2/2003'
 subject = 'Math' 'Chemistry'</t>
+  </si>
+  <si>
+    <t>Verify that student can not register with Moblie Number &lt;  10 digits</t>
   </si>
 </sst>
 </file>
@@ -411,20 +410,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -439,7 +438,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -461,18 +460,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -521,6 +508,196 @@
         <a:xfrm>
           <a:off x="11787189" y="273845"/>
           <a:ext cx="2107406" cy="1935780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>23599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3741964</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>3330135</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10953750" y="14814563"/>
+          <a:ext cx="3551464" cy="3306536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>29493</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3673929</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3573762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11035393" y="11214564"/>
+          <a:ext cx="3401786" cy="3544269"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3495675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3291801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11468100" y="6906986"/>
+          <a:ext cx="2800350" cy="3223765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12247</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3042813</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>925705</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11715750" y="5851072"/>
+          <a:ext cx="2099838" cy="913458"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>217715</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3875826</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3487975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10980965" y="2408465"/>
+          <a:ext cx="3658111" cy="3324689"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -797,9 +974,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -816,52 +993,52 @@
     <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:10" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="18"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>"TC"&amp;ROW()-1</f>
         <v>TC1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>9</v>
@@ -873,12 +1050,12 @@
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>"TC"&amp;ROW()-1</f>
         <v>TC2</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
@@ -898,7 +1075,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="str">
         <f t="shared" ref="A4:A7" si="0">"TC"&amp;ROW()-1</f>
         <v>TC3</v>
@@ -923,7 +1100,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="str">
         <f t="shared" si="0"/>
         <v>TC4</v>
@@ -941,14 +1118,14 @@
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>TC5</v>
@@ -958,38 +1135,38 @@
         <v>24</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="str">
         <f t="shared" si="0"/>
         <v>TC6</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="9" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="1"/>
@@ -1010,23 +1187,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <f>ROW()-1</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/formPage/TestCase-Form-E2E.xlsx
+++ b/formPage/TestCase-Form-E2E.xlsx
@@ -191,26 +191,25 @@
     <t>Fail</t>
   </si>
   <si>
+    <t>firstName='Kha'
+lastName='Hoai'
+gender='Male'
+mobileNumber='9825467895'
+dayOfBirth = '7/2/2003'
+subject = 'Math' 'Chemistry'</t>
+  </si>
+  <si>
+    <t>Verify that student can not register with Moblie Number &lt;  10 digits</t>
+  </si>
+  <si>
     <t>1. Open browser
 2. Visit the website: "https://demoqa.com/automation-practice-form"
 3. Input valid first name: 'Kha'
 4. Input valid last name: 'Hoai'
 5. Select Gender option: 'Male'
 6.Input valid mobile number: '9825467895'
-7. Select valid birthday: '7/2/2003'
-8. Input valid subject: 'Math' 'Chemistry'
-9. Click on Submit button</t>
-  </si>
-  <si>
-    <t>firstName='Kha'
-lastName='Hoai'
-gender='Male'
-mobileNumber='9825467895'
-dayOfBirth = '7/2/2003'
-subject = 'Math' 'Chemistry'</t>
-  </si>
-  <si>
-    <t>Verify that student can not register with Moblie Number &lt;  10 digits</t>
+7. Input valid subject: 'Math' 'Chemistry'
+8. Click on Submit button</t>
   </si>
 </sst>
 </file>
@@ -488,8 +487,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>3119439</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1971500</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>173656</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -975,8 +974,8 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1023,7 +1022,7 @@
       </c>
       <c r="J1" s="16"/>
     </row>
-    <row r="2" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>"TC"&amp;ROW()-1</f>
         <v>TC1</v>
@@ -1035,10 +1034,10 @@
         <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>9</v>
@@ -1155,7 +1154,7 @@
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>25</v>
